--- a/biology/Botanique/Madame_Alfred_de_Rougemont/Madame_Alfred_de_Rougemont.xlsx
+++ b/biology/Botanique/Madame_Alfred_de_Rougemont/Madame_Alfred_de_Rougemont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Madame Alfred de Rougement' est un cultivar de rosier obtenu par le rosiériste lyonnais François Lacharme (1817-1887) en 1862.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier se présente sous la forme d'un petit buisson compact atteignant 80 cm[1] en moyenne. Ses boutons sont rose pâle et donnent naissance à des fleurs en coupe très doubles, d'une belle couleur blanche, souvent ombrées de rose, et discrètement parfumées[2] ; elles sont fort élégantes et mesurent de 4 cm à 8 cm de diamètre[3]. Elles fleurissent en mai-juin, puis en automne[4]. Cette remontée automnale est abondante[5]. Leur coupe est formée de plus de 41 pétales[6].
-Ce rosier très rustique est aussi particulièrement adapté pour les climats chauds. Il nécessite d'avoir le point de greffe protégé en hiver, même s'il supporte les hivers à -15°/-20°[7], et il a besoin d'être taillé avant le printemps. Ses roses fanées doivent être éliminées au fur et à mesure pour ne pas favoriser la formation de fruits qui épuiseraient la plante. Il existe une variété en grimpant.
-Il est issu de 'Mademoiselle Blanche Lafitte' (Pradel 1851) x 'Sapho'[8] (Vibert 1842)[9]. Certains considèrent donc qu'il s'agit d'un hybride remontant, alors qu'il avait longtemps été classé comme rosier de Noisette.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier se présente sous la forme d'un petit buisson compact atteignant 80 cm en moyenne. Ses boutons sont rose pâle et donnent naissance à des fleurs en coupe très doubles, d'une belle couleur blanche, souvent ombrées de rose, et discrètement parfumées ; elles sont fort élégantes et mesurent de 4 cm à 8 cm de diamètre. Elles fleurissent en mai-juin, puis en automne. Cette remontée automnale est abondante. Leur coupe est formée de plus de 41 pétales.
+Ce rosier très rustique est aussi particulièrement adapté pour les climats chauds. Il nécessite d'avoir le point de greffe protégé en hiver, même s'il supporte les hivers à -15°/-20°, et il a besoin d'être taillé avant le printemps. Ses roses fanées doivent être éliminées au fur et à mesure pour ne pas favoriser la formation de fruits qui épuiseraient la plante. Il existe une variété en grimpant.
+Il est issu de 'Mademoiselle Blanche Lafitte' (Pradel 1851) x 'Sapho' (Vibert 1842). Certains considèrent donc qu'il s'agit d'un hybride remontant, alors qu'il avait longtemps été classé comme rosier de Noisette.
 </t>
         </is>
       </c>
